--- a/SensitivityAnalysisSpreadSheets/WeightCheckTime/WeightCheckTime10 Aircraft 9_1_-50%.xlsx
+++ b/SensitivityAnalysisSpreadSheets/WeightCheckTime/WeightCheckTime10 Aircraft 9_1_-50%.xlsx
@@ -78469,6 +78469,9 @@
           <t>Run 1</t>
         </is>
       </c>
+      <c r="B2" t="n">
+        <v>13.70333333333333</v>
+      </c>
       <c r="C2" t="n">
         <v>428.5266666666666</v>
       </c>
@@ -78524,6 +78527,9 @@
           <t>Run 2</t>
         </is>
       </c>
+      <c r="B3" t="n">
+        <v>14.97083333333333</v>
+      </c>
       <c r="C3" t="n">
         <v>456.3377777777778</v>
       </c>
@@ -78579,6 +78585,9 @@
           <t>Run 3</t>
         </is>
       </c>
+      <c r="B4" t="n">
+        <v>11.507</v>
+      </c>
       <c r="C4" t="n">
         <v>416.3205555555555</v>
       </c>
@@ -78634,6 +78643,9 @@
           <t>Run 4</t>
         </is>
       </c>
+      <c r="B5" t="n">
+        <v>12.9395</v>
+      </c>
       <c r="C5" t="n">
         <v>426.0483333333334</v>
       </c>
@@ -78689,6 +78701,9 @@
           <t>Run 5</t>
         </is>
       </c>
+      <c r="B6" t="n">
+        <v>13.24683333333333</v>
+      </c>
       <c r="C6" t="n">
         <v>433.0661111111111</v>
       </c>
@@ -78744,6 +78759,9 @@
           <t>Run 6</t>
         </is>
       </c>
+      <c r="B7" t="n">
+        <v>14.93933333333333</v>
+      </c>
       <c r="C7" t="n">
         <v>448.2905555555556</v>
       </c>
@@ -78799,6 +78817,9 @@
           <t>Run 7</t>
         </is>
       </c>
+      <c r="B8" t="n">
+        <v>12.73533333333333</v>
+      </c>
       <c r="C8" t="n">
         <v>433.0333333333333</v>
       </c>
@@ -78854,6 +78875,9 @@
           <t>Run 8</t>
         </is>
       </c>
+      <c r="B9" t="n">
+        <v>13.229</v>
+      </c>
       <c r="C9" t="n">
         <v>435.9783333333334</v>
       </c>
@@ -78909,6 +78933,9 @@
           <t>Run 9</t>
         </is>
       </c>
+      <c r="B10" t="n">
+        <v>15.131</v>
+      </c>
       <c r="C10" t="n">
         <v>459.9155555555556</v>
       </c>
@@ -78964,6 +78991,9 @@
           <t>Run 10</t>
         </is>
       </c>
+      <c r="B11" t="n">
+        <v>12.81216666666667</v>
+      </c>
       <c r="C11" t="n">
         <v>438.3044444444445</v>
       </c>
@@ -79019,6 +79049,9 @@
           <t>Run 11</t>
         </is>
       </c>
+      <c r="B12" t="n">
+        <v>13.3385</v>
+      </c>
       <c r="C12" t="n">
         <v>442.7094444444444</v>
       </c>
@@ -79074,6 +79107,9 @@
           <t>Run 12</t>
         </is>
       </c>
+      <c r="B13" t="n">
+        <v>14.43</v>
+      </c>
       <c r="C13" t="n">
         <v>459.2716666666666</v>
       </c>
@@ -79129,6 +79165,9 @@
           <t>Run 13</t>
         </is>
       </c>
+      <c r="B14" t="n">
+        <v>12.71366666666667</v>
+      </c>
       <c r="C14" t="n">
         <v>433.4155555555556</v>
       </c>
@@ -79184,6 +79223,9 @@
           <t>Run 14</t>
         </is>
       </c>
+      <c r="B15" t="n">
+        <v>12.96366666666667</v>
+      </c>
       <c r="C15" t="n">
         <v>450.6783333333333</v>
       </c>
@@ -79239,6 +79281,9 @@
           <t>Run 15</t>
         </is>
       </c>
+      <c r="B16" t="n">
+        <v>12.6005</v>
+      </c>
       <c r="C16" t="n">
         <v>423.1388888888889</v>
       </c>
@@ -79294,6 +79339,9 @@
           <t>Run 16</t>
         </is>
       </c>
+      <c r="B17" t="n">
+        <v>12.61766666666667</v>
+      </c>
       <c r="C17" t="n">
         <v>450.3366666666667</v>
       </c>
@@ -79349,6 +79397,9 @@
           <t>Run 17</t>
         </is>
       </c>
+      <c r="B18" t="n">
+        <v>12.52716666666667</v>
+      </c>
       <c r="C18" t="n">
         <v>425.2661111111112</v>
       </c>
@@ -79404,6 +79455,9 @@
           <t>Run 18</t>
         </is>
       </c>
+      <c r="B19" t="n">
+        <v>14.004</v>
+      </c>
       <c r="C19" t="n">
         <v>458.9238888888889</v>
       </c>
@@ -79459,6 +79513,9 @@
           <t>Run 19</t>
         </is>
       </c>
+      <c r="B20" t="n">
+        <v>13.757</v>
+      </c>
       <c r="C20" t="n">
         <v>439.8483333333334</v>
       </c>
@@ -79514,6 +79571,9 @@
           <t>Run 20</t>
         </is>
       </c>
+      <c r="B21" t="n">
+        <v>12.78</v>
+      </c>
       <c r="C21" t="n">
         <v>415.7061111111111</v>
       </c>
@@ -79569,6 +79629,9 @@
           <t>Run 21</t>
         </is>
       </c>
+      <c r="B22" t="n">
+        <v>13.04916666666667</v>
+      </c>
       <c r="C22" t="n">
         <v>428.9916666666667</v>
       </c>
@@ -79624,6 +79687,9 @@
           <t>Run 22</t>
         </is>
       </c>
+      <c r="B23" t="n">
+        <v>13.51783333333333</v>
+      </c>
       <c r="C23" t="n">
         <v>468.68</v>
       </c>
@@ -79679,6 +79745,9 @@
           <t>Run 23</t>
         </is>
       </c>
+      <c r="B24" t="n">
+        <v>14.11333333333334</v>
+      </c>
       <c r="C24" t="n">
         <v>450.3222222222222</v>
       </c>
@@ -79734,6 +79803,9 @@
           <t>Run 24</t>
         </is>
       </c>
+      <c r="B25" t="n">
+        <v>14.35616666666667</v>
+      </c>
       <c r="C25" t="n">
         <v>458.0955555555555</v>
       </c>
@@ -79789,6 +79861,9 @@
           <t>Run 25</t>
         </is>
       </c>
+      <c r="B26" t="n">
+        <v>12.57283333333333</v>
+      </c>
       <c r="C26" t="n">
         <v>448.1555555555556</v>
       </c>
@@ -79844,6 +79919,9 @@
           <t>Run 26</t>
         </is>
       </c>
+      <c r="B27" t="n">
+        <v>13.595</v>
+      </c>
       <c r="C27" t="n">
         <v>432.0116666666667</v>
       </c>
@@ -79899,6 +79977,9 @@
           <t>Run 27</t>
         </is>
       </c>
+      <c r="B28" t="n">
+        <v>14.67333333333333</v>
+      </c>
       <c r="C28" t="n">
         <v>444.0716666666667</v>
       </c>
@@ -79954,6 +80035,9 @@
           <t>Run 28</t>
         </is>
       </c>
+      <c r="B29" t="n">
+        <v>12.618</v>
+      </c>
       <c r="C29" t="n">
         <v>447.3727777777777</v>
       </c>
@@ -80009,6 +80093,9 @@
           <t>Run 29</t>
         </is>
       </c>
+      <c r="B30" t="n">
+        <v>13.63316666666667</v>
+      </c>
       <c r="C30" t="n">
         <v>441.6166666666667</v>
       </c>
@@ -80063,6 +80150,9 @@
         <is>
           <t>Run 30</t>
         </is>
+      </c>
+      <c r="B31" t="n">
+        <v>15.09433333333333</v>
       </c>
       <c r="C31" t="n">
         <v>461.0094444444444</v>
